--- a/Codigos-variables/Codigos de paises.xlsx
+++ b/Codigos-variables/Codigos de paises.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="246">
   <si>
     <t>codigo</t>
   </si>
@@ -23,18 +23,33 @@
     <t>pais</t>
   </si>
   <si>
+    <t>continente</t>
+  </si>
+  <si>
     <t>Afganistán AFG</t>
   </si>
   <si>
+    <t>Asia</t>
+  </si>
+  <si>
     <t>Albania ALB</t>
   </si>
   <si>
+    <t>Europa</t>
+  </si>
+  <si>
     <t>Algeria DZA</t>
   </si>
   <si>
+    <t>África</t>
+  </si>
+  <si>
     <t>Samoa Americana ASM</t>
   </si>
   <si>
+    <t>Oceanía</t>
+  </si>
+  <si>
     <t>Andorra AND</t>
   </si>
   <si>
@@ -44,10 +59,16 @@
     <t>Antigua y Barbuda ATG</t>
   </si>
   <si>
+    <t>América del Norte</t>
+  </si>
+  <si>
     <t>Azerbaijan AZE</t>
   </si>
   <si>
     <t>Argentina ARG</t>
+  </si>
+  <si>
+    <t>América del Sur</t>
   </si>
   <si>
     <t>Australia AUS</t>
@@ -807,8 +828,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,15 +854,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,13 +875,19 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,7 +895,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,7 +906,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,7 +917,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,6 +928,9 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -893,7 +939,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,7 +950,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,7 +961,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,7 +972,10 @@
         <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,7 +983,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +994,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +1005,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,7 +1016,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,7 +1027,10 @@
         <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,7 +1038,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,7 +1049,10 @@
         <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +1060,10 @@
         <v>56</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +1071,10 @@
         <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,7 +1082,10 @@
         <v>64</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,7 +1093,10 @@
         <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,7 +1104,10 @@
         <v>70</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,7 +1115,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,7 +1126,10 @@
         <v>76</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,7 +1137,10 @@
         <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,7 +1148,10 @@
         <v>90</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,7 +1159,10 @@
         <v>92</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,7 +1170,10 @@
         <v>96</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,7 +1181,10 @@
         <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,7 +1192,10 @@
         <v>104</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,7 +1203,10 @@
         <v>108</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,7 +1214,10 @@
         <v>112</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1225,10 @@
         <v>116</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,7 +1236,10 @@
         <v>120</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,7 +1247,10 @@
         <v>124</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,7 +1258,10 @@
         <v>132</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,7 +1269,10 @@
         <v>136</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,7 +1280,10 @@
         <v>140</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,7 +1291,10 @@
         <v>144</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,7 +1302,10 @@
         <v>148</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,7 +1313,10 @@
         <v>152</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,7 +1324,10 @@
         <v>156</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1335,10 @@
         <v>170</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,7 +1346,10 @@
         <v>174</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,7 +1357,10 @@
         <v>175</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1368,10 @@
         <v>178</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1379,10 @@
         <v>180</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,7 +1390,10 @@
         <v>184</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,7 +1401,10 @@
         <v>188</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,7 +1412,10 @@
         <v>191</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1423,10 @@
         <v>192</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,7 +1434,10 @@
         <v>196</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,7 +1445,10 @@
         <v>203</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1456,10 @@
         <v>204</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,7 +1467,10 @@
         <v>208</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,7 +1478,10 @@
         <v>212</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,7 +1489,10 @@
         <v>214</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1500,10 @@
         <v>218</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,7 +1511,10 @@
         <v>222</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,7 +1522,10 @@
         <v>226</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,7 +1533,10 @@
         <v>231</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,7 +1544,10 @@
         <v>232</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,7 +1555,10 @@
         <v>233</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,7 +1566,10 @@
         <v>234</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,7 +1577,10 @@
         <v>238</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,7 +1588,10 @@
         <v>242</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,7 +1599,10 @@
         <v>246</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,7 +1610,10 @@
         <v>248</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,7 +1621,10 @@
         <v>250</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,7 +1632,10 @@
         <v>254</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1643,10 @@
         <v>258</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1654,10 @@
         <v>262</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,7 +1665,10 @@
         <v>266</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,7 +1676,10 @@
         <v>268</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,7 +1687,10 @@
         <v>270</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,7 +1698,10 @@
         <v>275</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1709,10 @@
         <v>276</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,7 +1720,10 @@
         <v>288</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,7 +1731,10 @@
         <v>292</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,7 +1742,10 @@
         <v>296</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,7 +1753,10 @@
         <v>300</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1764,10 @@
         <v>304</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1775,10 @@
         <v>308</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,7 +1786,10 @@
         <v>312</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1797,10 @@
         <v>316</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,7 +1808,10 @@
         <v>320</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,7 +1819,10 @@
         <v>324</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,7 +1830,10 @@
         <v>328</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1841,10 @@
         <v>332</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,7 +1852,10 @@
         <v>336</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,7 +1863,10 @@
         <v>340</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,7 +1874,10 @@
         <v>344</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1885,10 @@
         <v>348</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,7 +1896,10 @@
         <v>352</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,7 +1907,10 @@
         <v>356</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,7 +1918,10 @@
         <v>360</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,7 +1929,10 @@
         <v>364</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,7 +1940,10 @@
         <v>368</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,7 +1951,10 @@
         <v>372</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,7 +1962,10 @@
         <v>376</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,7 +1973,10 @@
         <v>380</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,7 +1984,10 @@
         <v>384</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1995,10 @@
         <v>388</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,7 +2006,10 @@
         <v>392</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,7 +2017,10 @@
         <v>398</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +2028,10 @@
         <v>400</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,7 +2039,10 @@
         <v>404</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,7 +2050,10 @@
         <v>408</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,7 +2061,10 @@
         <v>410</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +2072,10 @@
         <v>414</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,7 +2083,10 @@
         <v>417</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,7 +2094,10 @@
         <v>418</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,7 +2105,10 @@
         <v>422</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +2116,10 @@
         <v>426</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,7 +2127,10 @@
         <v>428</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,7 +2138,10 @@
         <v>430</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +2149,10 @@
         <v>434</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +2160,10 @@
         <v>438</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +2171,10 @@
         <v>440</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +2182,10 @@
         <v>442</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +2193,10 @@
         <v>446</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,7 +2204,10 @@
         <v>450</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,7 +2215,10 @@
         <v>454</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +2226,10 @@
         <v>458</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,7 +2237,10 @@
         <v>462</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +2248,10 @@
         <v>466</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,7 +2259,10 @@
         <v>470</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +2270,10 @@
         <v>474</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +2281,10 @@
         <v>478</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,7 +2292,10 @@
         <v>480</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +2303,10 @@
         <v>484</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +2314,10 @@
         <v>492</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,7 +2325,10 @@
         <v>496</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +2336,10 @@
         <v>498</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +2347,10 @@
         <v>499</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,7 +2358,10 @@
         <v>500</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,7 +2369,10 @@
         <v>504</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,7 +2380,10 @@
         <v>508</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,7 +2391,10 @@
         <v>512</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,7 +2402,10 @@
         <v>516</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,7 +2413,10 @@
         <v>520</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,7 +2424,10 @@
         <v>524</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,7 +2435,10 @@
         <v>528</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,7 +2446,10 @@
         <v>530</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,7 +2457,10 @@
         <v>533</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2468,10 @@
         <v>540</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,7 +2479,10 @@
         <v>548</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,7 +2490,10 @@
         <v>554</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,7 +2501,10 @@
         <v>558</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,7 +2512,10 @@
         <v>562</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,7 +2523,10 @@
         <v>566</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,7 +2534,10 @@
         <v>570</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,7 +2545,10 @@
         <v>574</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,7 +2556,10 @@
         <v>578</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,7 +2567,10 @@
         <v>580</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,7 +2578,10 @@
         <v>583</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2589,10 @@
         <v>584</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,7 +2600,10 @@
         <v>585</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,7 +2611,10 @@
         <v>586</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,7 +2622,10 @@
         <v>591</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,7 +2633,10 @@
         <v>598</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2644,10 @@
         <v>600</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,7 +2655,10 @@
         <v>604</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,7 +2666,10 @@
         <v>608</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,7 +2677,10 @@
         <v>612</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2688,10 @@
         <v>616</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,7 +2699,10 @@
         <v>620</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,7 +2710,10 @@
         <v>624</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2189,7 +2721,10 @@
         <v>626</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,7 +2732,10 @@
         <v>630</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2743,10 @@
         <v>634</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,7 +2754,10 @@
         <v>638</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,7 +2765,10 @@
         <v>642</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,7 +2776,10 @@
         <v>643</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,7 +2787,10 @@
         <v>646</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,7 +2798,10 @@
         <v>652</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,7 +2809,10 @@
         <v>654</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,7 +2820,10 @@
         <v>659</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,7 +2831,10 @@
         <v>660</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2842,10 @@
         <v>662</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,7 +2853,10 @@
         <v>663</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,7 +2864,10 @@
         <v>666</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,7 +2875,10 @@
         <v>670</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2886,10 @@
         <v>674</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,7 +2897,10 @@
         <v>678</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2908,10 @@
         <v>682</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,7 +2919,10 @@
         <v>686</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,7 +2930,10 @@
         <v>688</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,7 +2941,10 @@
         <v>690</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,7 +2952,10 @@
         <v>694</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,7 +2963,10 @@
         <v>702</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2974,10 @@
         <v>703</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,7 +2985,10 @@
         <v>704</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,7 +2996,10 @@
         <v>705</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,7 +3007,10 @@
         <v>706</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,7 +3018,10 @@
         <v>710</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,7 +3029,10 @@
         <v>716</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +3040,10 @@
         <v>724</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,7 +3051,10 @@
         <v>732</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,7 +3062,10 @@
         <v>736</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,7 +3073,10 @@
         <v>740</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +3084,10 @@
         <v>744</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,7 +3095,10 @@
         <v>748</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,7 +3106,10 @@
         <v>752</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,7 +3117,10 @@
         <v>756</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +3128,10 @@
         <v>760</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +3139,10 @@
         <v>762</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,7 +3150,10 @@
         <v>764</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,7 +3161,10 @@
         <v>768</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,7 +3172,10 @@
         <v>772</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,7 +3183,10 @@
         <v>776</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,7 +3194,10 @@
         <v>780</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,7 +3205,10 @@
         <v>784</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +3216,10 @@
         <v>788</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,7 +3227,10 @@
         <v>792</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +3238,10 @@
         <v>795</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,7 +3249,10 @@
         <v>796</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>217</v>
+        <v>224</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,7 +3260,10 @@
         <v>798</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,7 +3271,10 @@
         <v>800</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,7 +3282,10 @@
         <v>804</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,7 +3293,10 @@
         <v>807</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,7 +3304,10 @@
         <v>818</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +3315,10 @@
         <v>826</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>223</v>
+        <v>230</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,7 +3326,10 @@
         <v>830</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,7 +3337,10 @@
         <v>831</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,7 +3348,10 @@
         <v>832</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,7 +3359,10 @@
         <v>833</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>227</v>
+        <v>234</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,7 +3370,10 @@
         <v>834</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,7 +3381,10 @@
         <v>840</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,7 +3392,10 @@
         <v>850</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,7 +3403,10 @@
         <v>854</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>231</v>
+        <v>238</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,7 +3414,10 @@
         <v>858</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,7 +3425,10 @@
         <v>860</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +3436,10 @@
         <v>862</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +3447,10 @@
         <v>876</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +3458,10 @@
         <v>882</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,7 +3469,10 @@
         <v>887</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>237</v>
+        <v>244</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +3480,10 @@
         <v>894</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
